--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp15-Bmpr1a.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Bmp15</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Bmp15</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H2">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.722665</v>
+        <v>6.322177333333333</v>
       </c>
       <c r="N2">
-        <v>17.167995</v>
+        <v>18.966532</v>
       </c>
       <c r="O2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="P2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
       <c r="Q2">
-        <v>0.31777195723</v>
+        <v>0.3386916841013333</v>
       </c>
       <c r="R2">
-        <v>2.85994761507</v>
+        <v>3.048225156912</v>
       </c>
       <c r="S2">
-        <v>0.09021166427595352</v>
+        <v>0.08271011762055308</v>
       </c>
       <c r="T2">
-        <v>0.09021166427595353</v>
+        <v>0.08271011762055309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H3">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>123.860985</v>
       </c>
       <c r="O3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="P3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
       <c r="Q3">
-        <v>2.292611783023333</v>
+        <v>2.21182689614</v>
       </c>
       <c r="R3">
-        <v>20.63350604721</v>
+        <v>19.90644206526</v>
       </c>
       <c r="S3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560596</v>
       </c>
       <c r="T3">
-        <v>0.6508451100847196</v>
+        <v>0.5401386314560597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H4">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.36419166666667</v>
+        <v>27.73243066666667</v>
       </c>
       <c r="N4">
-        <v>49.092575</v>
+        <v>83.197292</v>
       </c>
       <c r="O4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="P4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="Q4">
-        <v>0.9086817443277777</v>
+        <v>1.485681775674667</v>
       </c>
       <c r="R4">
-        <v>8.178135698949999</v>
+        <v>13.371135981072</v>
       </c>
       <c r="S4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
       <c r="T4">
-        <v>0.2579638970271175</v>
+        <v>0.3628105447549136</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05552866666666666</v>
+        <v>0.053572</v>
       </c>
       <c r="H5">
-        <v>0.166586</v>
+        <v>0.160716</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06212466666666667</v>
+        <v>1.096171666666667</v>
       </c>
       <c r="N5">
-        <v>0.186374</v>
+        <v>3.288515</v>
       </c>
       <c r="O5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="P5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="Q5">
-        <v>0.003449699907111111</v>
+        <v>0.05872410852666667</v>
       </c>
       <c r="R5">
-        <v>0.031047299164</v>
+        <v>0.5285169767400001</v>
       </c>
       <c r="S5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
       <c r="T5">
-        <v>0.000979328612209321</v>
+        <v>0.01434070616847367</v>
       </c>
     </row>
   </sheetData>
